--- a/Trabalho 3 - Pthreads/1 - Teste/with_transpose.xlsx
+++ b/Trabalho 3 - Pthreads/1 - Teste/with_transpose.xlsx
@@ -167,7 +167,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -228,51 +228,51 @@
         <v>1440</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>13.507</v>
+        <v>13.505</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3.4968972361</v>
+        <v>3.48924972075</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1.9593276487</v>
+        <v>1.957725356</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.9597328253</v>
+        <v>0.95959033925</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.559720236</v>
+        <v>0.56931352175</v>
       </c>
       <c r="G2" s="1" t="n">
         <f aca="false">B2 / C2</f>
-        <v>3.8625670381621</v>
+        <v>3.87045957750973</v>
       </c>
       <c r="H2" s="1" t="n">
         <f aca="false">B2 / D2</f>
-        <v>6.89369131750976</v>
+        <v>6.89831183858866</v>
       </c>
       <c r="I2" s="1" t="n">
         <f aca="false">B2 / E2</f>
-        <v>14.0737084779588</v>
+        <v>14.0737140085792</v>
       </c>
       <c r="J2" s="1" t="n">
         <f aca="false">B2 / F2</f>
-        <v>24.1316985366239</v>
+        <v>23.7215514546138</v>
       </c>
       <c r="K2" s="1" t="n">
         <f aca="false">G2 / C1</f>
-        <v>0.965641759540524</v>
+        <v>0.967614894377433</v>
       </c>
       <c r="L2" s="1" t="n">
         <f aca="false">H2 / D1</f>
-        <v>0.86171141468872</v>
+        <v>0.862288979823583</v>
       </c>
       <c r="M2" s="1" t="n">
         <f aca="false">I2 / E1</f>
-        <v>0.879606779872428</v>
+        <v>0.879607125536201</v>
       </c>
       <c r="N2" s="1" t="n">
         <f aca="false">J2 / F1</f>
-        <v>0.754115579269498</v>
+        <v>0.74129848295668</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,51 +280,51 @@
         <v>1600</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>18.514</v>
+        <v>18.51</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>4.7599639799</v>
+        <v>4.754434373</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>2.8130102943</v>
+        <v>2.755048071125</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1.3072207285</v>
+        <v>1.30781606975</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.7112095455</v>
+        <v>0.71248817825</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">B3 / C3</f>
-        <v>3.88952523132096</v>
+        <v>3.89320759270895</v>
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">B3 / D3</f>
-        <v>6.58156141039189</v>
+        <v>6.71857605462456</v>
       </c>
       <c r="I3" s="1" t="n">
         <f aca="false">B3 / E3</f>
-        <v>14.1628721120758</v>
+        <v>14.1533663854875</v>
       </c>
       <c r="J3" s="1" t="n">
         <f aca="false">B3 / F3</f>
-        <v>26.0317091033756</v>
+        <v>25.9793784164446</v>
       </c>
       <c r="K3" s="1" t="n">
         <f aca="false">G3 / C1</f>
-        <v>0.972381307830241</v>
+        <v>0.973301898177237</v>
       </c>
       <c r="L3" s="1" t="n">
         <f aca="false">H3 / D1</f>
-        <v>0.822695176298986</v>
+        <v>0.83982200682807</v>
       </c>
       <c r="M3" s="1" t="n">
         <f aca="false">I3 / E1</f>
-        <v>0.885179507004735</v>
+        <v>0.884585399092968</v>
       </c>
       <c r="N3" s="1" t="n">
         <f aca="false">J3 / F1</f>
-        <v>0.813490909480489</v>
+        <v>0.811855575513894</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,51 +332,51 @@
         <v>1760</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>24.637</v>
+        <v>24.635</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>6.302241842</v>
+        <v>6.293953016875</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>3.3990179356</v>
+        <v>3.251705955875</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.7217705203</v>
+        <v>1.72342327975</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.9612795848</v>
+        <v>0.971672339125</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">B4 / C4</f>
-        <v>3.90924382428674</v>
+        <v>3.91407433991801</v>
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">B4 / D4</f>
-        <v>7.24827007882529</v>
+        <v>7.57602327341157</v>
       </c>
       <c r="I4" s="1" t="n">
         <f aca="false">B4 / E4</f>
-        <v>14.3091078105503</v>
+        <v>14.2942249239975</v>
       </c>
       <c r="J4" s="1" t="n">
         <f aca="false">B4 / F4</f>
-        <v>25.6293802443811</v>
+        <v>25.3531967599119</v>
       </c>
       <c r="K4" s="1" t="n">
         <f aca="false">G4 / C1</f>
-        <v>0.977310956071685</v>
+        <v>0.978518584979503</v>
       </c>
       <c r="L4" s="1" t="n">
         <f aca="false">H4 / D1</f>
-        <v>0.906033759853162</v>
+        <v>0.947002909176446</v>
       </c>
       <c r="M4" s="1" t="n">
         <f aca="false">I4 / E1</f>
-        <v>0.894319238159394</v>
+        <v>0.893389057749845</v>
       </c>
       <c r="N4" s="1" t="n">
         <f aca="false">J4 / F1</f>
-        <v>0.80091813263691</v>
+        <v>0.792287398747248</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -384,51 +384,51 @@
         <v>1920</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>32.016</v>
+        <v>32.015</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>8.1780097671</v>
+        <v>8.163487144125</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>4.3074085074</v>
+        <v>4.333093466375</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.2073803702</v>
+        <v>2.204941368625</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.2217776991</v>
+        <v>1.231647724875</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">B5 / C5</f>
-        <v>3.91488894141455</v>
+        <v>3.92173092635298</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">B5 / D5</f>
-        <v>7.43277540196094</v>
+        <v>7.38848590468631</v>
       </c>
       <c r="I5" s="1" t="n">
         <f aca="false">B5 / E5</f>
-        <v>14.5040702690942</v>
+        <v>14.5196604569874</v>
       </c>
       <c r="J5" s="1" t="n">
         <f aca="false">B5 / F5</f>
-        <v>26.2044396649112</v>
+        <v>25.9936338560194</v>
       </c>
       <c r="K5" s="1" t="n">
         <f aca="false">G5 / C1</f>
-        <v>0.978722235353638</v>
+        <v>0.980432731588246</v>
       </c>
       <c r="L5" s="1" t="n">
         <f aca="false">H5 / D1</f>
-        <v>0.929096925245117</v>
+        <v>0.923560738085788</v>
       </c>
       <c r="M5" s="1" t="n">
         <f aca="false">I5 / E1</f>
-        <v>0.906504391818388</v>
+        <v>0.90747877856171</v>
       </c>
       <c r="N5" s="1" t="n">
         <f aca="false">J5 / F1</f>
-        <v>0.818888739528475</v>
+        <v>0.812301058000605</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,51 +436,51 @@
         <v>2080</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>40.766</v>
+        <v>40.765</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>10.3673979311</v>
+        <v>10.3522659315</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>5.5359480991</v>
+        <v>5.598362873625</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>2.7669342862</v>
+        <v>2.766869453875</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1.5777830933</v>
+        <v>1.597472341875</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">B6 / C6</f>
-        <v>3.93213420290453</v>
+        <v>3.9377852413895</v>
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">B6 / D6</f>
-        <v>7.36386961550949</v>
+        <v>7.28159301571036</v>
       </c>
       <c r="I6" s="1" t="n">
         <f aca="false">B6 / E6</f>
-        <v>14.7332736463309</v>
+        <v>14.7332574519946</v>
       </c>
       <c r="J6" s="1" t="n">
         <f aca="false">B6 / F6</f>
-        <v>25.8375185873847</v>
+        <v>25.5184386805426</v>
       </c>
       <c r="K6" s="1" t="n">
         <f aca="false">G6 / C1</f>
-        <v>0.983033550726133</v>
+        <v>0.984446310347374</v>
       </c>
       <c r="L6" s="1" t="n">
         <f aca="false">H6 / D1</f>
-        <v>0.920483701938686</v>
+        <v>0.910199126963795</v>
       </c>
       <c r="M6" s="1" t="n">
         <f aca="false">I6 / E1</f>
-        <v>0.920829602895684</v>
+        <v>0.920828590749661</v>
       </c>
       <c r="N6" s="1" t="n">
         <f aca="false">J6 / F1</f>
-        <v>0.80742245585577</v>
+        <v>0.797451208766957</v>
       </c>
     </row>
   </sheetData>
